--- a/docs/BRCtb_MGIT.xlsx
+++ b/docs/BRCtb_MGIT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="122">
   <si>
     <t xml:space="preserve">SequencingRun</t>
   </si>
@@ -353,37 +353,22 @@
     <t xml:space="preserve">Fast5_Directory</t>
   </si>
   <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
     <t xml:space="preserve">/mnt/microbio/HOMES/fan/tmp/20180125_1704_tb_birmingham_4</t>
   </si>
   <si>
-    <t xml:space="preserve">single to multi</t>
-  </si>
-  <si>
     <t xml:space="preserve">/mnt/microbio/Nanopore/tb_mgit_phe_1/f5s</t>
   </si>
   <si>
-    <t xml:space="preserve">moving fast5 back into dir</t>
-  </si>
-  <si>
     <t xml:space="preserve">/mnt/microbio/Nanopore/tb_mgit_phe_2/f5s</t>
   </si>
   <si>
     <t xml:space="preserve">/mnt/microbio/Nanopore/birmingham-mgit-run1/f5s</t>
   </si>
   <si>
-    <t xml:space="preserve">missing data</t>
-  </si>
-  <si>
     <t xml:space="preserve">/mnt/microbio/Nanopore/birmingham-mgit-run2/f5s</t>
   </si>
   <si>
     <t xml:space="preserve">/mnt/microbio/Nanopore/birmingham-mgit-run3/f5s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decompressing fast5</t>
   </si>
   <si>
     <t xml:space="preserve">/mnt/microbio/Nanopore/birmingham-mgit-run4/f5s</t>
@@ -715,8 +700,8 @@
   </sheetPr>
   <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R5" activeCellId="0" sqref="R5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2216,7 +2201,7 @@
         <v>0.291745815285937</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -5126,78 +5111,64 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,10 +5176,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,10 +5184,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,10 +5192,7 @@
         <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5238,10 +5200,7 @@
         <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5249,10 +5208,7 @@
         <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,20 +5216,17 @@
         <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
